--- a/品質管理/質問投稿.xlsx
+++ b/品質管理/質問投稿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00DBE50-8130-4D7D-BA02-AFFA1B8CEC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A086E4-BE02-441B-82F7-09B4AD8970FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04D136A-9B66-4E43-8D9A-67AD095E5F1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D04D136A-9B66-4E43-8D9A-67AD095E5F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>※行が増えたり項目が増えると「チェックボックス」がずれるので、最後に追加する。</t>
     <phoneticPr fontId="1"/>
@@ -222,10 +222,6 @@
   </si>
   <si>
     <t>タグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1の場合</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -334,6 +330,10 @@
   </si>
   <si>
     <t>5個の場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,9 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -954,7 +951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5C091F-5DB7-448E-AA52-A7E605E54A2E}">
   <dimension ref="B4:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -982,8 +981,10 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -991,8 +992,10 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1000,8 +1003,10 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1009,8 +1014,10 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1018,8 +1025,10 @@
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1027,8 +1036,10 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1036,8 +1047,10 @@
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1045,8 +1058,10 @@
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1054,8 +1069,10 @@
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1063,8 +1080,10 @@
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1072,8 +1091,10 @@
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1081,8 +1102,10 @@
       <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1090,8 +1113,10 @@
       <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1099,24 +1124,27 @@
       <c r="B19" s="2">
         <v>14</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1124,14 +1152,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15E1B75-8FCA-4B55-B18E-ABBAA5229D2F}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="7" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
@@ -1153,21 +1183,23 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:10" ht="48" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -1182,17 +1214,17 @@
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1200,223 +1232,249 @@
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
-        <v>31</v>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>30</v>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
-        <v>31</v>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="11" t="s">
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>30</v>
+      <c r="H16" s="12"/>
+      <c r="I16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>31</v>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>30</v>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="2">
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
-        <v>31</v>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" s="2">
         <v>12</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>30</v>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B21" s="2">
         <v>13</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11" t="s">
-        <v>31</v>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/品質管理/質問投稿.xlsx
+++ b/品質管理/質問投稿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A086E4-BE02-441B-82F7-09B4AD8970FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA19F7-FE58-4D77-B590-7B79C1B9DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D04D136A-9B66-4E43-8D9A-67AD095E5F1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04D136A-9B66-4E43-8D9A-67AD095E5F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -951,9 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5C091F-5DB7-448E-AA52-A7E605E54A2E}">
   <dimension ref="B4:D21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1152,9 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15E1B75-8FCA-4B55-B18E-ABBAA5229D2F}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
